--- a/자유수강권/중국어(수강).xlsx
+++ b/자유수강권/중국어(수강).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="312" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="320" uniqueCount="81">
   <si>
     <t>주야</t>
   </si>
@@ -112,6 +112,15 @@
     <t>홍윤성</t>
   </si>
   <si>
+    <t>4반</t>
+  </si>
+  <si>
+    <t>6</t>
+  </si>
+  <si>
+    <t>김준혁</t>
+  </si>
+  <si>
     <t>3학년</t>
   </si>
   <si>
@@ -128,9 +137,6 @@
   </si>
   <si>
     <t>안세연</t>
-  </si>
-  <si>
-    <t>4반</t>
   </si>
   <si>
     <t>김태영</t>
@@ -619,7 +625,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:H39"/>
+  <dimension ref="A1:H40"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -921,16 +927,16 @@
         <v>8</v>
       </c>
       <c r="B12" s="1" t="s">
+        <v>25</v>
+      </c>
+      <c r="C12" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C12" s="1" t="s">
+      <c r="D12" s="1" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="1" t="s">
+      <c r="E12" s="1" t="s">
         <v>34</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>35</v>
       </c>
       <c r="F12" s="1" t="s">
         <v>13</v>
@@ -947,16 +953,16 @@
         <v>8</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="F13" s="1" t="s">
         <v>13</v>
@@ -973,16 +979,16 @@
         <v>8</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>15</v>
+        <v>39</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="F14" s="1" t="s">
         <v>13</v>
@@ -999,13 +1005,13 @@
         <v>8</v>
       </c>
       <c r="B15" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C15" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="C15" s="1" t="s">
-        <v>38</v>
-      </c>
       <c r="D15" s="1" t="s">
-        <v>40</v>
+        <v>15</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>41</v>
@@ -1025,10 +1031,10 @@
         <v>8</v>
       </c>
       <c r="B16" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C16" s="1" t="s">
         <v>32</v>
-      </c>
-      <c r="C16" s="1" t="s">
-        <v>21</v>
       </c>
       <c r="D16" s="1" t="s">
         <v>42</v>
@@ -1051,13 +1057,13 @@
         <v>8</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="C17" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D17" s="1" t="s">
         <v>44</v>
-      </c>
-      <c r="D17" s="1" t="s">
-        <v>15</v>
       </c>
       <c r="E17" s="1" t="s">
         <v>45</v>
@@ -1077,13 +1083,13 @@
         <v>8</v>
       </c>
       <c r="B18" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" s="1" t="s">
         <v>46</v>
       </c>
-      <c r="C18" s="1" t="s">
-        <v>14</v>
-      </c>
       <c r="D18" s="1" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="E18" s="1" t="s">
         <v>47</v>
@@ -1103,13 +1109,13 @@
         <v>8</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C19" s="1" t="s">
         <v>14</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>48</v>
+        <v>27</v>
       </c>
       <c r="E19" s="1" t="s">
         <v>49</v>
@@ -1129,10 +1135,10 @@
         <v>8</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>38</v>
+        <v>14</v>
       </c>
       <c r="D20" s="1" t="s">
         <v>50</v>
@@ -1155,10 +1161,10 @@
         <v>8</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D21" s="1" t="s">
         <v>52</v>
@@ -1181,16 +1187,16 @@
         <v>8</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C22" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>42</v>
+        <v>54</v>
       </c>
       <c r="E22" s="1" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
         <v>13</v>
@@ -1207,16 +1213,16 @@
         <v>8</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C23" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="D23" s="1" t="s">
         <v>44</v>
       </c>
-      <c r="D23" s="1" t="s">
-        <v>30</v>
-      </c>
       <c r="E23" s="1" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="F23" s="1" t="s">
         <v>13</v>
@@ -1233,13 +1239,13 @@
         <v>8</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
       <c r="D24" s="1" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="E24" s="1" t="s">
         <v>57</v>
@@ -1259,13 +1265,13 @@
         <v>8</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D25" s="1" t="s">
-        <v>58</v>
+        <v>37</v>
       </c>
       <c r="E25" s="1" t="s">
         <v>59</v>
@@ -1285,16 +1291,16 @@
         <v>8</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
       <c r="D26" s="1" t="s">
-        <v>40</v>
+        <v>60</v>
       </c>
       <c r="E26" s="1" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="F26" s="1" t="s">
         <v>13</v>
@@ -1311,16 +1317,16 @@
         <v>8</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>10</v>
+        <v>36</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E27" s="1" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="F27" s="1" t="s">
         <v>13</v>
@@ -1337,13 +1343,13 @@
         <v>8</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C28" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D28" s="1" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E28" s="1" t="s">
         <v>63</v>
@@ -1363,10 +1369,10 @@
         <v>8</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="D29" s="1" t="s">
         <v>64</v>
@@ -1389,16 +1395,16 @@
         <v>8</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="D30" s="1" t="s">
-        <v>15</v>
+        <v>66</v>
       </c>
       <c r="E30" s="1" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="F30" s="1" t="s">
         <v>13</v>
@@ -1415,16 +1421,16 @@
         <v>8</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C31" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D31" s="1" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E31" s="1" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="F31" s="1" t="s">
         <v>13</v>
@@ -1441,16 +1447,16 @@
         <v>8</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="C32" s="1" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
       <c r="D32" s="1" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="E32" s="1" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="F32" s="1" t="s">
         <v>13</v>
@@ -1467,13 +1473,13 @@
         <v>8</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="C33" s="1" t="s">
-        <v>10</v>
+        <v>46</v>
       </c>
       <c r="D33" s="1" t="s">
-        <v>34</v>
+        <v>11</v>
       </c>
       <c r="E33" s="1" t="s">
         <v>70</v>
@@ -1493,16 +1499,16 @@
         <v>8</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C34" s="1" t="s">
         <v>10</v>
       </c>
       <c r="D34" s="1" t="s">
-        <v>27</v>
+        <v>37</v>
       </c>
       <c r="E34" s="1" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="F34" s="1" t="s">
         <v>13</v>
@@ -1519,16 +1525,16 @@
         <v>8</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C35" s="1" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="D35" s="1" t="s">
-        <v>36</v>
+        <v>27</v>
       </c>
       <c r="E35" s="1" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="F35" s="1" t="s">
         <v>13</v>
@@ -1545,13 +1551,13 @@
         <v>8</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C36" s="1" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="D36" s="1" t="s">
-        <v>73</v>
+        <v>39</v>
       </c>
       <c r="E36" s="1" t="s">
         <v>74</v>
@@ -1571,16 +1577,16 @@
         <v>8</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C37" s="1" t="s">
-        <v>21</v>
+        <v>32</v>
       </c>
       <c r="D37" s="1" t="s">
-        <v>30</v>
+        <v>75</v>
       </c>
       <c r="E37" s="1" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="F37" s="1" t="s">
         <v>13</v>
@@ -1597,16 +1603,16 @@
         <v>8</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C38" s="1" t="s">
         <v>21</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>73</v>
+        <v>30</v>
       </c>
       <c r="E38" s="1" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F38" s="1" t="s">
         <v>13</v>
@@ -1623,13 +1629,13 @@
         <v>8</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>69</v>
+        <v>71</v>
       </c>
       <c r="C39" s="1" t="s">
-        <v>44</v>
+        <v>21</v>
       </c>
       <c r="D39" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E39" s="1" t="s">
         <v>78</v>
@@ -1641,6 +1647,32 @@
         <v>13</v>
       </c>
       <c r="H39" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" ht="13.5">
+      <c r="A40" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="B40" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="C40" s="1" t="s">
+        <v>46</v>
+      </c>
+      <c r="D40" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="H40" s="1" t="s">
         <v>13</v>
       </c>
     </row>
